--- a/data/donnees_ID RENTAL_2023-07-24.xlsx
+++ b/data/donnees_ID RENTAL_2023-07-24.xlsx
@@ -3770,31 +3770,31 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>FL000774</t>
+          <t>FL000839</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>SANLAM ASSURANCE MADAGASCAR</t>
+          <t>BRICOLAND</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>22850187.97</v>
+        <v>321364.8</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-16090492.3</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>15475356.97</v>
+        <v>0</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-14546408.06</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>7688644.58</v>
+        <v>321364.8</v>
       </c>
     </row>
     <row r="22">
@@ -3805,31 +3805,31 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>FL000839</t>
+          <t>FL000781</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>BRICOLAND</t>
+          <t>AUTO DIFFUSION SA</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>321364.8</v>
+        <v>-774900000</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>0</v>
+        <v>86100000</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>0</v>
+        <v>86100000</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>321364.8</v>
+        <v>-602700000</v>
       </c>
     </row>
     <row r="23">
@@ -3840,31 +3840,31 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>FL000781</t>
+          <t>FL000843</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>AUTO DIFFUSION SA</t>
+          <t>TRANS-NAVION SARL</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-774900000</v>
+        <v>2100000</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>86100000</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>86100000</v>
+        <v>-2100000</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>-602700000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -3875,31 +3875,31 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>FL000843</t>
+          <t>FL000774</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>TRANS-NAVION SARL</t>
+          <t>SANLAM ASSURANCE MADAGASCAR</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>2100000</v>
+        <v>-90310918.61</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>0</v>
+        <v>-16090492.3</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>0</v>
+        <v>15475356.97</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>-2100000</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0</v>
+        <v>-7171577.06</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0</v>
+        <v>-98097631</v>
       </c>
     </row>
     <row r="25">

--- a/data/donnees_ID RENTAL_2023-07-24.xlsx
+++ b/data/donnees_ID RENTAL_2023-07-24.xlsx
@@ -3031,7 +3031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3149,7 +3149,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1371498</v>
+        <v>388326</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>-1371498</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0</v>
+        <v>-983172</v>
       </c>
     </row>
     <row r="4">
@@ -3569,7 +3569,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-13398130.11</v>
+        <v>-13505622.51</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>-96390</v>
@@ -3584,7 +3584,7 @@
         <v>-256758.12</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>-13751278.23</v>
+        <v>-13858770.63</v>
       </c>
     </row>
     <row r="16">
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0</v>
+        <v>-3960000</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>0</v>
@@ -3619,7 +3619,7 @@
         <v>-2148000</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>-2148000</v>
+        <v>-6108000</v>
       </c>
     </row>
     <row r="17">
@@ -3989,7 +3989,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-1874643.57</v>
+        <v>-7561993.57</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>-2646900</v>
@@ -4004,7 +4004,7 @@
         <v>-1611515.06</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>-6133058.63</v>
+        <v>-11820408.63</v>
       </c>
     </row>
     <row r="28">
@@ -4129,7 +4129,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>8339424</v>
+        <v>3639424</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>-4550000</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>3789424</v>
+        <v>-910576</v>
       </c>
     </row>
     <row r="32">
@@ -4934,7 +4934,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>0</v>
+        <v>-1389240</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>0</v>
@@ -4949,7 +4949,7 @@
         <v>324000</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>324000</v>
+        <v>-1065240</v>
       </c>
     </row>
     <row r="55">
@@ -5020,6 +5020,76 @@
       </c>
       <c r="I56" s="2" t="n">
         <v>-5922499.5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>Fournisseur</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>FL00836</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>CAMTRACK MADAGASCAR SARLU</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>-288000</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>-288000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>Fournisseur</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>FL000797</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>SOCIETE CHANDARANA &amp; CIE</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>-36099.96</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>-36099.96</v>
       </c>
     </row>
   </sheetData>
